--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Gautier.Fall.121219.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Gautier.Fall.121219.xlsx_with_dialog_acts.xlsx
@@ -707,12 +707,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -745,12 +745,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1049,12 +1049,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1391,12 +1391,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1775,12 +1775,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2391,12 +2391,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2429,12 +2429,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2467,12 +2467,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2581,12 +2581,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2619,12 +2619,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3729,12 +3729,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3923,12 +3923,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3961,12 +3961,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4775,12 +4775,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5349,12 +5349,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5387,12 +5387,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5999,12 +5999,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6113,12 +6113,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6379,12 +6379,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6493,12 +6493,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -6915,12 +6915,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -7455,12 +7455,12 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7493,12 +7493,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7915,12 +7915,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8599,12 +8599,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8941,12 +8941,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9207,12 +9207,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9439,12 +9439,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9553,12 +9553,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9823,12 +9823,12 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10241,12 +10241,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10355,12 +10355,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10663,12 +10663,12 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11005,12 +11005,12 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11271,12 +11271,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11385,12 +11385,12 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11727,12 +11727,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11917,12 +11917,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12111,12 +12111,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12187,12 +12187,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12643,12 +12643,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12909,12 +12909,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13483,12 +13483,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13719,12 +13719,12 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14059,12 +14059,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14713,12 +14713,12 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15633,12 +15633,12 @@
       <c r="H397" t="inlineStr"/>
       <c r="I397" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16861,12 +16861,12 @@
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16903,12 +16903,12 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16979,12 +16979,12 @@
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17171,12 +17171,12 @@
       <c r="H437" t="inlineStr"/>
       <c r="I437" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17209,12 +17209,12 @@
       <c r="H438" t="inlineStr"/>
       <c r="I438" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17711,12 +17711,12 @@
       <c r="H451" t="inlineStr"/>
       <c r="I451" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17791,12 +17791,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18099,12 +18099,12 @@
       <c r="H461" t="inlineStr"/>
       <c r="I461" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18141,12 +18141,12 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19061,12 +19061,12 @@
       <c r="H486" t="inlineStr"/>
       <c r="I486" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19593,12 +19593,12 @@
       <c r="H500" t="inlineStr"/>
       <c r="I500" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19821,12 +19821,12 @@
       <c r="H506" t="inlineStr"/>
       <c r="I506" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19859,12 +19859,12 @@
       <c r="H507" t="inlineStr"/>
       <c r="I507" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19973,12 +19973,12 @@
       <c r="H510" t="inlineStr"/>
       <c r="I510" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20011,12 +20011,12 @@
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20201,12 +20201,12 @@
       <c r="H516" t="inlineStr"/>
       <c r="I516" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20239,12 +20239,12 @@
       <c r="H517" t="inlineStr"/>
       <c r="I517" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20429,12 +20429,12 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20733,12 +20733,12 @@
       <c r="H530" t="inlineStr"/>
       <c r="I530" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21227,12 +21227,12 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21341,12 +21341,12 @@
       <c r="H546" t="inlineStr"/>
       <c r="I546" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21455,12 +21455,12 @@
       <c r="H549" t="inlineStr"/>
       <c r="I549" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21531,12 +21531,12 @@
       <c r="H551" t="inlineStr"/>
       <c r="I551" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21683,12 +21683,12 @@
       <c r="H555" t="inlineStr"/>
       <c r="I555" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21721,12 +21721,12 @@
       <c r="H556" t="inlineStr"/>
       <c r="I556" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21797,12 +21797,12 @@
       <c r="H558" t="inlineStr"/>
       <c r="I558" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25511,12 +25511,12 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25549,12 +25549,12 @@
       <c r="H656" t="inlineStr"/>
       <c r="I656" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25625,12 +25625,12 @@
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26469,12 +26469,12 @@
       <c r="H680" t="inlineStr"/>
       <c r="I680" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27473,12 +27473,12 @@
       <c r="H706" t="inlineStr"/>
       <c r="I706" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -27705,12 +27705,12 @@
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J712" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -27861,12 +27861,12 @@
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
